--- a/XLSX/MEDIASES.xlsx
+++ b/XLSX/MEDIASES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coelh\Pessoal\TI\CURSOS\Hashtag\ExcelCompleto\Aulas\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485F3B6-F2D5-486B-94ED-1C0F95AC66F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983331A-C277-4F3D-98EE-887108E79CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="629" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +532,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +583,10 @@
       <c r="E4" s="3">
         <v>94887</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -680,10 +680,10 @@
       <c r="E9" s="3">
         <v>90212</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -833,7 +833,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,10 +884,10 @@
       <c r="D4" s="3">
         <v>94887</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -905,7 +905,7 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f>AVERAGEIFS($D:$D,$C:$C,$F5)</f>
         <v>148008.42857142858</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" ref="G6:G7" si="0">AVERAGEIFS($D:$D,$C:$C,$F6)</f>
         <v>156110.75</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>171030.25</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="D9" s="3">
         <v>90212</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
